--- a/CLAVES PETROLERA.xlsx
+++ b/CLAVES PETROLERA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CLAVES SIP-DGAE\Análisis de claves\CLAVES-FORMATOS FINALES\FORMATOS FINALES CORREGIDOS COMPLETOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultad\Servicio Social\FORMATOS FINALES CORREGIDOS COMPLETOS\PlanesEstudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,9 +16,6 @@
     <sheet name="Apoyo_Academico" sheetId="4" r:id="rId2"/>
     <sheet name="Formacion_Complementaria" sheetId="5" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Apoyo_Academico!$A$1:$D$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Docencia_Directa!$H$1:$H$112</definedName>
@@ -29,12 +26,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Formacion_Complementaria!$1:$1</definedName>
     <definedName name="total_asignaturas">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="193">
   <si>
     <t>CLAVE DGAE</t>
   </si>
@@ -586,6 +583,33 @@
   </si>
   <si>
     <t>6989</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO</t>
+  </si>
+  <si>
+    <t>ASIGNATURAS SOCIOHUMANÍSTICAS</t>
+  </si>
+  <si>
+    <t>INGENIERÍA EN COMPUTACIÓN</t>
+  </si>
+  <si>
+    <t>INGENIERÍA PETROLERA</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE MATEMÁTICAS</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE CIENCIAS APLICADAS</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE FÍSICA Y QUÍMICA</t>
+  </si>
+  <si>
+    <t>INGENIERÍA GEOLÓGICA</t>
+  </si>
+  <si>
+    <t>INGENIERÍA GEOFÍSICA</t>
   </si>
 </sst>
 </file>
@@ -878,7 +902,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -987,6 +1011,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1003,21 +1036,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="APOYO ACADEMICO"/>
-      <sheetName val="FORM COMP"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1309,8 +1327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DG112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="148" workbookViewId="0">
-      <selection activeCell="F2" sqref="A2:IV74"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1322,15 +1340,17 @@
     <col min="5" max="5" width="5.42578125" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="80.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" style="32" customWidth="1"/>
-    <col min="17" max="17" width="38.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="88.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="40.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="40.140625" style="52" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:111" s="31" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
@@ -1384,6 +1404,9 @@
       </c>
       <c r="Q1" s="49" t="s">
         <v>24</v>
+      </c>
+      <c r="R1" s="49" t="s">
+        <v>184</v>
       </c>
       <c r="S1" s="34"/>
       <c r="T1" s="34"/>
@@ -1531,6 +1554,9 @@
       <c r="Q2" s="38" t="s">
         <v>30</v>
       </c>
+      <c r="R2" s="50" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="3" spans="1:111" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="38">
@@ -1584,6 +1610,9 @@
       <c r="Q3" s="44" t="s">
         <v>30</v>
       </c>
+      <c r="R3" s="50" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="4" spans="1:111" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="38">
@@ -1637,6 +1666,9 @@
       <c r="Q4" s="44" t="s">
         <v>30</v>
       </c>
+      <c r="R4" s="50" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="5" spans="1:111" s="34" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38">
@@ -1690,6 +1722,9 @@
       <c r="Q5" s="44" t="s">
         <v>30</v>
       </c>
+      <c r="R5" s="50" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="6" spans="1:111" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="38">
@@ -1743,6 +1778,9 @@
       <c r="Q6" s="44" t="s">
         <v>37</v>
       </c>
+      <c r="R6" s="50" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="7" spans="1:111" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="38">
@@ -1796,6 +1834,9 @@
       <c r="Q7" s="44" t="s">
         <v>30</v>
       </c>
+      <c r="R7" s="50" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="8" spans="1:111" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="38">
@@ -1849,6 +1890,9 @@
       <c r="Q8" s="44" t="s">
         <v>42</v>
       </c>
+      <c r="R8" s="50" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="9" spans="1:111" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="38">
@@ -1902,6 +1946,9 @@
       <c r="Q9" s="44" t="s">
         <v>30</v>
       </c>
+      <c r="R9" s="50" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="10" spans="1:111" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="38">
@@ -1955,6 +2002,9 @@
       <c r="Q10" s="44" t="s">
         <v>30</v>
       </c>
+      <c r="R10" s="50" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="11" spans="1:111" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="38">
@@ -2008,6 +2058,9 @@
       <c r="Q11" s="44" t="s">
         <v>30</v>
       </c>
+      <c r="R11" s="50" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="12" spans="1:111" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
@@ -2061,6 +2114,9 @@
       <c r="Q12" s="44" t="s">
         <v>42</v>
       </c>
+      <c r="R12" s="50" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="13" spans="1:111" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
@@ -2114,6 +2170,9 @@
       <c r="Q13" s="44" t="s">
         <v>30</v>
       </c>
+      <c r="R13" s="50" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="14" spans="1:111" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
@@ -2167,6 +2226,9 @@
       <c r="Q14" s="44" t="s">
         <v>30</v>
       </c>
+      <c r="R14" s="50" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="15" spans="1:111" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
@@ -2220,6 +2282,9 @@
       <c r="Q15" s="44" t="s">
         <v>30</v>
       </c>
+      <c r="R15" s="50" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="16" spans="1:111" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="38">
@@ -2273,8 +2338,11 @@
       <c r="Q16" s="44" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R16" s="50" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <v>117</v>
       </c>
@@ -2326,8 +2394,11 @@
       <c r="Q17" s="44" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R17" s="50" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="38">
         <v>117</v>
       </c>
@@ -2379,8 +2450,11 @@
       <c r="Q18" s="44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R18" s="50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="38">
         <v>117</v>
       </c>
@@ -2432,8 +2506,11 @@
       <c r="Q19" s="44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R19" s="50" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="38">
         <v>117</v>
       </c>
@@ -2485,8 +2562,11 @@
       <c r="Q20" s="44" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R20" s="50" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="38">
         <v>117</v>
       </c>
@@ -2538,8 +2618,11 @@
       <c r="Q21" s="44" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R21" s="50" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <v>117</v>
       </c>
@@ -2591,8 +2674,11 @@
       <c r="Q22" s="44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R22" s="50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="38">
         <v>117</v>
       </c>
@@ -2644,8 +2730,11 @@
       <c r="Q23" s="44" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R23" s="50" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="38">
         <v>117</v>
       </c>
@@ -2697,8 +2786,11 @@
       <c r="Q24" s="44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R24" s="50" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="38">
         <v>117</v>
       </c>
@@ -2750,8 +2842,11 @@
       <c r="Q25" s="44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R25" s="50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="38">
         <v>117</v>
       </c>
@@ -2803,8 +2898,11 @@
       <c r="Q26" s="44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R26" s="50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="38">
         <v>117</v>
       </c>
@@ -2856,8 +2954,11 @@
       <c r="Q27" s="44" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R27" s="50" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
         <v>117</v>
       </c>
@@ -2909,8 +3010,11 @@
       <c r="Q28" s="44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R28" s="50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="38">
         <v>117</v>
       </c>
@@ -2962,8 +3066,11 @@
       <c r="Q29" s="44" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R29" s="50" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="38">
         <v>117</v>
       </c>
@@ -3015,8 +3122,11 @@
       <c r="Q30" s="44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R30" s="50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="38">
         <v>117</v>
       </c>
@@ -3068,8 +3178,11 @@
       <c r="Q31" s="44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R31" s="50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="38">
         <v>117</v>
       </c>
@@ -3121,8 +3234,11 @@
       <c r="Q32" s="44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R32" s="50" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="38">
         <v>117</v>
       </c>
@@ -3174,8 +3290,11 @@
       <c r="Q33" s="44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R33" s="50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="38">
         <v>117</v>
       </c>
@@ -3227,8 +3346,11 @@
       <c r="Q34" s="44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R34" s="50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="38">
         <v>117</v>
       </c>
@@ -3280,8 +3402,11 @@
       <c r="Q35" s="44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R35" s="50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="38">
         <v>117</v>
       </c>
@@ -3333,8 +3458,11 @@
       <c r="Q36" s="44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R36" s="50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="38">
         <v>117</v>
       </c>
@@ -3386,8 +3514,11 @@
       <c r="Q37" s="44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R37" s="50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="38">
         <v>117</v>
       </c>
@@ -3439,8 +3570,11 @@
       <c r="Q38" s="44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R38" s="50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="38">
         <v>117</v>
       </c>
@@ -3492,8 +3626,11 @@
       <c r="Q39" s="44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R39" s="50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="38">
         <v>117</v>
       </c>
@@ -3545,8 +3682,11 @@
       <c r="Q40" s="44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R40" s="50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="38">
         <v>117</v>
       </c>
@@ -3598,8 +3738,11 @@
       <c r="Q41" s="44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R41" s="50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="38">
         <v>117</v>
       </c>
@@ -3651,8 +3794,11 @@
       <c r="Q42" s="44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R42" s="50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="38">
         <v>117</v>
       </c>
@@ -3704,8 +3850,11 @@
       <c r="Q43" s="44" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R43" s="50" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="38">
         <v>117</v>
       </c>
@@ -3757,8 +3906,11 @@
       <c r="Q44" s="44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R44" s="50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="38">
         <v>117</v>
       </c>
@@ -3810,8 +3962,11 @@
       <c r="Q45" s="44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R45" s="50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="38">
         <v>117</v>
       </c>
@@ -3863,8 +4018,11 @@
       <c r="Q46" s="44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R46" s="50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="38">
         <v>117</v>
       </c>
@@ -3916,8 +4074,11 @@
       <c r="Q47" s="44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R47" s="50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="38">
         <v>117</v>
       </c>
@@ -3969,8 +4130,11 @@
       <c r="Q48" s="44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R48" s="50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="38">
         <v>117</v>
       </c>
@@ -4022,8 +4186,11 @@
       <c r="Q49" s="44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R49" s="50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="38">
         <v>117</v>
       </c>
@@ -4075,8 +4242,11 @@
       <c r="Q50" s="44" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R50" s="50" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="38">
         <v>117</v>
       </c>
@@ -4128,8 +4298,11 @@
       <c r="Q51" s="44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R51" s="50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="38">
         <v>117</v>
       </c>
@@ -4181,8 +4354,11 @@
       <c r="Q52" s="44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R52" s="50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="38">
         <v>117</v>
       </c>
@@ -4234,8 +4410,11 @@
       <c r="Q53" s="44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R53" s="50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="38">
         <v>117</v>
       </c>
@@ -4287,8 +4466,11 @@
       <c r="Q54" s="44" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R54" s="50" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="38">
         <v>117</v>
       </c>
@@ -4340,8 +4522,11 @@
       <c r="Q55" s="44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R55" s="50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="38">
         <v>117</v>
       </c>
@@ -4393,8 +4578,11 @@
       <c r="Q56" s="44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R56" s="50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="38">
         <v>117</v>
       </c>
@@ -4446,8 +4634,11 @@
       <c r="Q57" s="44" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R57" s="50" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="38">
         <v>117</v>
       </c>
@@ -4499,8 +4690,11 @@
       <c r="Q58" s="44" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R58" s="50" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="38">
         <v>117</v>
       </c>
@@ -4552,8 +4746,11 @@
       <c r="Q59" s="44" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R59" s="50" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="38">
         <v>117</v>
       </c>
@@ -4605,8 +4802,11 @@
       <c r="Q60" s="44" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R60" s="50" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="38">
         <v>117</v>
       </c>
@@ -4658,8 +4858,11 @@
       <c r="Q61" s="44" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R61" s="50" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="38">
         <v>117</v>
       </c>
@@ -4711,8 +4914,11 @@
       <c r="Q62" s="44" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R62" s="50" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="38">
         <v>117</v>
       </c>
@@ -4764,8 +4970,11 @@
       <c r="Q63" s="44" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R63" s="50" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="38">
         <v>117</v>
       </c>
@@ -4816,6 +5025,9 @@
       </c>
       <c r="Q64" s="44" t="s">
         <v>37</v>
+      </c>
+      <c r="R64" s="50" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:111" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4870,6 +5082,9 @@
       <c r="Q65" s="44" t="s">
         <v>42</v>
       </c>
+      <c r="R65" s="50" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="66" spans="1:111" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="38">
@@ -4923,6 +5138,9 @@
       <c r="Q66" s="44" t="s">
         <v>42</v>
       </c>
+      <c r="R66" s="50" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="67" spans="1:111" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="38">
@@ -4976,6 +5194,9 @@
       <c r="Q67" s="44" t="s">
         <v>42</v>
       </c>
+      <c r="R67" s="50" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="68" spans="1:111" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="38">
@@ -5029,6 +5250,9 @@
       <c r="Q68" s="44" t="s">
         <v>42</v>
       </c>
+      <c r="R68" s="50" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="69" spans="1:111" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="38">
@@ -5082,6 +5306,9 @@
       <c r="Q69" s="44" t="s">
         <v>42</v>
       </c>
+      <c r="R69" s="50" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="70" spans="1:111" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="38">
@@ -5135,6 +5362,9 @@
       <c r="Q70" s="44" t="s">
         <v>42</v>
       </c>
+      <c r="R70" s="50" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="71" spans="1:111" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="38">
@@ -5188,6 +5418,9 @@
       <c r="Q71" s="44" t="s">
         <v>42</v>
       </c>
+      <c r="R71" s="50" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="72" spans="1:111" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="38">
@@ -5241,6 +5474,9 @@
       <c r="Q72" s="44" t="s">
         <v>42</v>
       </c>
+      <c r="R72" s="50" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="73" spans="1:111" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="38">
@@ -5294,6 +5530,9 @@
       <c r="Q73" s="44" t="s">
         <v>42</v>
       </c>
+      <c r="R73" s="50" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="74" spans="1:111" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="38">
@@ -5346,6 +5585,9 @@
       </c>
       <c r="Q74" s="44" t="s">
         <v>42</v>
+      </c>
+      <c r="R74" s="50" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="75" spans="1:111" x14ac:dyDescent="0.25">
@@ -5366,7 +5608,7 @@
       <c r="O75" s="35"/>
       <c r="P75" s="37"/>
       <c r="Q75" s="37"/>
-      <c r="R75" s="35"/>
+      <c r="R75" s="51"/>
       <c r="S75" s="35"/>
       <c r="T75" s="35"/>
       <c r="U75" s="35"/>
